--- a/data/trans_camb/P28A_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P28A_3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,63</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-25,75</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-33,55</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,97</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-2,77</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-2,28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-3,72</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-6,22</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-12,55</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-17,82</t>
+          <t>-5,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-42,05; 19,58</t>
+          <t>-15,86; 16,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-53,55; 2,29</t>
+          <t>-19,09; 11,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-59,33; -8,47</t>
+          <t>-22,7; 5,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 41,3</t>
+          <t>-5,12; 16,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 16,99</t>
+          <t>-12,27; 3,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 11,86</t>
+          <t>-10,38; 5,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 22,76</t>
+          <t>-6,46; 12,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 5,25</t>
+          <t>-12,54; 4,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-34,26; -1,95</t>
+          <t>-13,64; 2,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,76%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-58,62%</t>
+          <t>-43,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-76,39%</t>
+          <t>-70,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,5%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,51%</t>
+          <t>-57,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,26%</t>
+          <t>-47,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-43,37%</t>
+          <t>-45,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-61,58%</t>
+          <t>-61,37%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-75,2; 67,89</t>
+          <t>-82,64; 626,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-91,8; 17,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-96,46; -15,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,17; 534,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-85,07; 268,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,03; 199,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,14; 111,47</t>
+          <t>-58,3; 373,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-77,67; 29,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-85,07; 4,08</t>
+          <t>-100,0; 129,24</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,71</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-18,08</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-27,23</t>
+          <t>-10,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-27,05</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-17,29</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-34,51</t>
+          <t>-10,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-17,0</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,31</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-30,18</t>
+          <t>-9,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-35,45; 18,59</t>
+          <t>-16,97; 9,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-39,65; 7,36</t>
+          <t>-20,33; 4,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-47,95; -2,62</t>
+          <t>-24,57; -0,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-49,79; -3,22</t>
+          <t>-13,36; 5,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,73; 4,83</t>
+          <t>-9,85; 12,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,26; -14,95</t>
+          <t>-19,16; -3,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 0,1</t>
+          <t>-11,96; 4,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 2,66</t>
+          <t>-11,66; 5,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-45,19; -14,23</t>
+          <t>-17,52; -4,25</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-26,07%</t>
+          <t>-24,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-54,1%</t>
+          <t>-54,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-81,47%</t>
+          <t>-82,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-67,99%</t>
+          <t>-33,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-43,45%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-86,74%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-47,25%</t>
+          <t>-28,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-48,11%</t>
+          <t>-26,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-83,9%</t>
+          <t>-89,68%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-74,4; 91,11</t>
+          <t>-83,45; 197,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-86,47; 41,95</t>
+          <t>-100,0; 143,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -7,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-91,88; -9,69</t>
+          <t>-87,78; 161,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,21; 21,36</t>
+          <t>-73,7; 293,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -42,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-74,53; 0,36</t>
+          <t>-73,17; 67,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,84; 7,25</t>
+          <t>-71,59; 84,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-95,76; -50,67</t>
+          <t>-100,0; -12,3</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,38</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-21,85</t>
+          <t>-8,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-21,19</t>
+          <t>-8,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-23,74</t>
+          <t>-9,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-32,88</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-36,46</t>
+          <t>-14,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-19,46</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-28,38</t>
+          <t>-9,24</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-30,26</t>
+          <t>-12,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 9,99</t>
+          <t>-16,91; 3,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,19; -6,07</t>
+          <t>-18,4; -0,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-41,2; -7,12</t>
+          <t>-19,0; -0,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-43,94; -5,45</t>
+          <t>-20,3; -0,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,42; -17,58</t>
+          <t>-19,96; -1,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-53,62; -21,3</t>
+          <t>-23,9; -6,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,46; -3,62</t>
+          <t>-15,41; -1,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,23; -16,7</t>
+          <t>-16,1; -3,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-42,25; -17,69</t>
+          <t>-18,53; -6,5</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-41,14%</t>
+          <t>-55,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-78,97%</t>
+          <t>-72,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-76,59%</t>
+          <t>-74,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-48,97%</t>
+          <t>-62,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-67,82%</t>
+          <t>-63,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-75,2%</t>
+          <t>-93,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-49,32%</t>
+          <t>-59,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-71,93%</t>
+          <t>-66,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-76,69%</t>
+          <t>-86,99%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,74; 71,83</t>
+          <t>-100,0; 81,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-95,23; -11,97</t>
+          <t>-100,0; 104,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-95,53; -27,89</t>
+          <t>-100,0; 53,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-78,29; -11,3</t>
+          <t>-88,28; -3,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,28; -41,48</t>
+          <t>-85,86; 0,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-91,04; -48,93</t>
+          <t>-100,0; -54,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-72,43; -9,72</t>
+          <t>-82,49; -9,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-84,26; -48,26</t>
+          <t>-86,81; -26,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-89,04; -53,21</t>
+          <t>-96,89; -55,88</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-25,85</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-28,07</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-28,2</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-16,64</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,58</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,77</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-20,38</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-22,74</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-18,66</t>
+          <t>-3,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-45,61; -5,97</t>
+          <t>-13,66; 0,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-46,91; -10,06</t>
+          <t>-12,81; 1,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-46,07; -10,07</t>
+          <t>-12,7; 2,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 2,2</t>
+          <t>-11,11; 4,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-34,74; -1,0</t>
+          <t>-10,28; 4,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 7,11</t>
+          <t>-9,5; 6,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-33,71; -8,6</t>
+          <t>-9,28; 0,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-34,83; -10,34</t>
+          <t>-9,5; 0,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-30,97; -5,92</t>
+          <t>-8,92; 2,03</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-70,69%</t>
+          <t>-70,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-76,77%</t>
+          <t>-70,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-77,13%</t>
+          <t>-58,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-45,88%</t>
+          <t>-31,22%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-51,23%</t>
+          <t>-26,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-29,68%</t>
+          <t>-15,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-56,01%</t>
+          <t>-48,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-62,51%</t>
+          <t>-45,41%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-51,27%</t>
+          <t>-34,9%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-94,55; -8,61</t>
+          <t>-100,0; 102,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-94,23; -20,93</t>
+          <t>-100,0; 125,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-94,58; -29,17</t>
+          <t>-100,0; 110,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-74,03; 11,1</t>
+          <t>-77,67; 104,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-77,36; -0,74</t>
+          <t>-76,75; 79,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,97; 33,51</t>
+          <t>-68,88; 130,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-76,83; -25,61</t>
+          <t>-76,32; 20,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-78,98; -33,9</t>
+          <t>-76,34; 20,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-73,33; -19,51</t>
+          <t>-72,39; 35,08</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-12,49</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-14,58</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-12,97</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-12,32</t>
+          <t>-4,38</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 12,64</t>
+          <t>-8,92; 5,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 21,27</t>
+          <t>-10,91; 1,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-26,73; -2,94</t>
+          <t>-13,53; -1,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 19,91</t>
+          <t>-7,77; 10,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 1,64</t>
+          <t>-9,6; 6,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 4,33</t>
+          <t>-10,6; 5,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 11,19</t>
+          <t>-5,72; 5,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 7,34</t>
+          <t>-8,28; 1,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -3,78</t>
+          <t>-9,19; -0,11</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-21,71%</t>
+          <t>-22,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>-72,75%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-86,87%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-66,53%</t>
+          <t>-28,72%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-59,15%</t>
+          <t>-51,35%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-10,77%</t>
+          <t>-9,88%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-25,77%</t>
+          <t>-53,96%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-70,65%</t>
+          <t>-78,53%</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-82,56; 250,49</t>
+          <t>-100,0; 541,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-57,99; 350,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 193,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-93,34; 97,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-62,96; 94,8</t>
+          <t>-74,06; 219,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-72,09; 79,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-94,02; -13,83</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-26,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-26,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-26,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-11,17</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-12,4</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-15,29</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-19,44</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-20,09</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-64,25; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-64,14; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-64,14; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-33,29; 48,97</t>
+          <t>-6,25; 4,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-60,02; 10,07</t>
+          <t>-9,95; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-62,0; 7,09</t>
+          <t>-6,77; 3,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-43,61; 6,71</t>
+          <t>-3,19; 3,33</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-44,21; 0,0</t>
+          <t>-6,38; 0,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-44,5; -2,45</t>
+          <t>-4,01; 1,77</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>-22,15%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-69,53%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-77,22%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-69,57%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-88,46%</t>
-        </is>
-      </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-91,38%</t>
+          <t>-20,93%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-18,22</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-23,67</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-13,16</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-19,25</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-22,26</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-12,91</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-18,76</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-23,12</t>
+          <t>-6,36</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-22,11; -1,14</t>
+          <t>-7,31; 0,68</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-27,09; -8,45</t>
+          <t>-9,17; -1,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-31,63; -14,28</t>
+          <t>-10,11; -3,07</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-22,35; -4,34</t>
+          <t>-6,82; 0,72</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-27,04; -10,88</t>
+          <t>-7,8; -0,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-30,59; -14,23</t>
+          <t>-9,98; -3,0</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-20,13; -5,79</t>
+          <t>-6,1; -0,34</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-24,46; -12,36</t>
+          <t>-7,26; -1,75</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-28,68; -16,93</t>
+          <t>-9,0; -3,88</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-41,65%</t>
+          <t>-36,99%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-60,99%</t>
+          <t>-60,84%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-79,25%</t>
+          <t>-74,01%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-38,33%</t>
+          <t>-32,55%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-56,06%</t>
+          <t>-40,3%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-64,83%</t>
+          <t>-68,54%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-40,15%</t>
+          <t>-34,56%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-58,34%</t>
+          <t>-49,92%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-71,89%</t>
+          <t>-71,19%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,54 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-62,51; -4,32</t>
+          <t>-66,7; 11,84</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-75,43; -33,77</t>
+          <t>-81,23; -20,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-89,86; -60,77</t>
+          <t>-90,2; -38,96</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-56,54; -13,72</t>
+          <t>-60,12; 12,14</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-69,68; -36,47</t>
+          <t>-68,12; 0,6</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-77,97; -48,07</t>
+          <t>-85,61; -38,87</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-56,8; -20,15</t>
+          <t>-56,04; -2,36</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-68,56; -43,24</t>
+          <t>-68,07; -21,9</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-80,16; -59,48</t>
+          <t>-83,29; -49,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
